--- a/templates/certificate_2.xlsx
+++ b/templates/certificate_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>Инвестор:</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>${total_returned}</t>
-  </si>
-  <si>
-    <t>Powered by ccs.msk.ru</t>
   </si>
   <si>
     <t>№ ТСП</t>
@@ -288,14 +285,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,11 +742,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Примечание" xfId="3" builtinId="10"/>
-    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -771,40 +768,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1012461</xdr:colOff>
+      <xdr:colOff>604987</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>781050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="http://vgfinancing.com/assets/img/logo.png"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1228725" y="190500"/>
-          <a:ext cx="2164986" cy="447675"/>
+          <a:off x="334675" y="161925"/>
+          <a:ext cx="2651562" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -812,7 +808,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -827,9 +823,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -867,7 +863,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -901,6 +897,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -935,9 +932,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1110,15 +1108,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
@@ -1141,9 +1141,9 @@
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="31.5" customHeight="1"/>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1156,10 +1156,10 @@
       <c r="K4" s="5"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>2</v>
@@ -1173,7 +1173,7 @@
       <c r="K5" s="5"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="40" t="s">
         <v>0</v>
@@ -1190,10 +1190,10 @@
       <c r="K6" s="5"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>49</v>
@@ -1207,10 +1207,10 @@
       <c r="K7" s="5"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>50</v>
@@ -1224,10 +1224,10 @@
       <c r="K8" s="5"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75">
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="52"/>
       <c r="E9" s="3"/>
@@ -1239,7 +1239,7 @@
       <c r="K9" s="5"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75">
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="40" t="s">
         <v>38</v>
@@ -1256,13 +1256,13 @@
       <c r="K10" s="5"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75">
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>88</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1273,7 +1273,7 @@
       <c r="K11" s="5"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75">
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="40" t="s">
         <v>39</v>
@@ -1290,10 +1290,10 @@
       <c r="K12" s="5"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75">
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="41"/>
       <c r="E13" s="3"/>
@@ -1305,7 +1305,7 @@
       <c r="K13" s="5"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1316,10 +1316,10 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="25.5">
+    <row r="15" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="13"/>
       <c r="E15" s="3"/>
@@ -1328,7 +1328,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="38"/>
       <c r="C16" s="13"/>
@@ -1338,51 +1338,51 @@
       <c r="H16" s="14"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:19" ht="30" customHeight="1">
+    <row r="17" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="G17" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="I17" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="35" t="s">
+      <c r="L17" s="33" t="s">
         <v>83</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="33" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>3</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>35</v>
@@ -1408,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="44" t="s">
         <v>9</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="18.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="48" t="s">
         <v>14</v>
@@ -1461,7 +1461,7 @@
       <c r="O19" s="23"/>
       <c r="Q19" s="23"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickTop="1">
+    <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -1478,10 +1478,10 @@
       <c r="O20" s="23"/>
       <c r="Q20" s="24"/>
     </row>
-    <row r="21" spans="1:19" ht="25.5">
+    <row r="21" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="13"/>
       <c r="E21" s="3"/>
@@ -1500,7 +1500,7 @@
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1">
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="38"/>
       <c r="C22" s="13"/>
@@ -1516,54 +1516,54 @@
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="1:19" ht="32.25" customHeight="1">
+    <row r="23" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="D23" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="37" t="s">
+      <c r="J23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="K23" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="37" t="s">
+      <c r="L23" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="M23" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="37" t="s">
+      <c r="N23" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="O23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="N23" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="O23" s="37" t="s">
+      <c r="P23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="57" t="s">
         <v>22</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="46" t="s">
         <v>24</v>
@@ -1610,7 +1610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
+    <row r="25" spans="1:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="48" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16" t="s">
@@ -1637,7 +1637,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N25" s="16" t="s">
         <v>45</v>
@@ -1649,7 +1649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickTop="1">
+    <row r="26" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -1670,35 +1670,33 @@
       <c r="R26" s="30"/>
       <c r="S26" s="30"/>
     </row>
-    <row r="27" spans="1:19">
-      <c r="B27" s="31" t="s">
-        <v>53</v>
-      </c>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="31"/>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C28" s="30"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C29" s="30"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C30" s="30"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C31" s="30"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C32" s="30"/>
     </row>
-    <row r="37" spans="16:16">
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P37" s="61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="61" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="16:16">
-      <c r="P39" s="61" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1709,24 +1707,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/certificate_2.xlsx
+++ b/templates/certificate_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -285,14 +285,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,13 +740,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Примечание" xfId="3" builtinId="10"/>
+    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,15 +771,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>200824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>604987</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1291288</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
+      <xdr:rowOff>866775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -786,21 +789,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="334675" y="161925"/>
-          <a:ext cx="2651562" cy="1209675"/>
+          <a:off x="534199" y="247650"/>
+          <a:ext cx="1090464" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,7 +805,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -823,9 +820,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -863,7 +860,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -897,7 +894,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -932,10 +928,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1108,17 +1103,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:S39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
@@ -1141,9 +1136,19 @@
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+    </row>
+    <row r="2" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+    </row>
+    <row r="3" spans="1:16" ht="75.75" customHeight="1">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1156,7 +1161,7 @@
       <c r="K4" s="5"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75">
       <c r="A5" s="1"/>
       <c r="B5" s="40" t="s">
         <v>61</v>
@@ -1173,7 +1178,7 @@
       <c r="K5" s="5"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="1"/>
       <c r="B6" s="40" t="s">
         <v>0</v>
@@ -1190,7 +1195,7 @@
       <c r="K6" s="5"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75">
       <c r="A7" s="1"/>
       <c r="B7" s="40" t="s">
         <v>62</v>
@@ -1207,7 +1212,7 @@
       <c r="K7" s="5"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="1"/>
       <c r="B8" s="40" t="s">
         <v>63</v>
@@ -1224,7 +1229,7 @@
       <c r="K8" s="5"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75">
       <c r="A9" s="1"/>
       <c r="B9" s="40" t="s">
         <v>64</v>
@@ -1239,7 +1244,7 @@
       <c r="K9" s="5"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="1"/>
       <c r="B10" s="40" t="s">
         <v>38</v>
@@ -1256,7 +1261,7 @@
       <c r="K10" s="5"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75">
       <c r="A11" s="1"/>
       <c r="B11" s="40" t="s">
         <v>86</v>
@@ -1273,7 +1278,7 @@
       <c r="K11" s="5"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="1"/>
       <c r="B12" s="40" t="s">
         <v>39</v>
@@ -1290,7 +1295,7 @@
       <c r="K12" s="5"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75">
       <c r="A13" s="1"/>
       <c r="B13" s="40" t="s">
         <v>65</v>
@@ -1305,7 +1310,7 @@
       <c r="K13" s="5"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="8"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1316,7 +1321,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="25.5">
       <c r="A15" s="1"/>
       <c r="B15" s="39" t="s">
         <v>66</v>
@@ -1328,7 +1333,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="38"/>
       <c r="C16" s="13"/>
@@ -1338,7 +1343,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="30" customHeight="1">
       <c r="A17" s="33" t="s">
         <v>53</v>
       </c>
@@ -1382,7 +1387,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="42" t="s">
         <v>3</v>
       </c>
@@ -1427,7 +1432,7 @@
       </c>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48" t="s">
         <v>14</v>
@@ -1461,7 +1466,7 @@
       <c r="O19" s="23"/>
       <c r="Q19" s="23"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15.75" thickTop="1">
       <c r="A20" s="1"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -1478,7 +1483,7 @@
       <c r="O20" s="23"/>
       <c r="Q20" s="24"/>
     </row>
-    <row r="21" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="25.5">
       <c r="A21" s="1"/>
       <c r="B21" s="39" t="s">
         <v>67</v>
@@ -1500,7 +1505,7 @@
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="38"/>
       <c r="C22" s="13"/>
@@ -1516,7 +1521,7 @@
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="32.25" customHeight="1">
       <c r="B23" s="37" t="s">
         <v>80</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="B24" s="57" t="s">
         <v>22</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
       <c r="B25" s="48" t="s">
         <v>14</v>
       </c>
@@ -1649,7 +1654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15.75" thickTop="1">
       <c r="A26" s="8"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -1670,36 +1675,39 @@
       <c r="R26" s="30"/>
       <c r="S26" s="30"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="B27" s="31"/>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="C28" s="30"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="C29" s="30"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="C30" s="30"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="C31" s="30"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="C32" s="30"/>
     </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:16">
       <c r="P37" s="61" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:16">
       <c r="P39" s="61" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1707,24 +1715,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
